--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_6/out_of_sample/aryl_halide/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_6/out_of_sample/aryl_halide/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.519</v>
+        <v>0.569</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.761</v>
+        <v>16.481</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.508</v>
+        <v>0.583</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.593</v>
+        <v>17.1</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.833</v>
+        <v>0.9360000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.23</v>
+        <v>6.936</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>14.99798434771828</v>
+        <v>10.99621285977036</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>16.24154377376399</v>
+        <v>10.97044736685705</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>18.32210839241746</v>
+        <v>11.68819967716416</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>11.97017891305648</v>
+        <v>8.268475241445916</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>24.3120973133653</v>
+        <v>19.20215179015191</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>24.70296487413553</v>
+        <v>20.55174627409062</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>27.2188405788837</v>
+        <v>26.0454685447115</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>30.00948380023453</v>
+        <v>28.74623759313572</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>22.65779823223539</v>
+        <v>22.76587946262509</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>39.4786845467336</v>
+        <v>40.35602728430991</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>24.93329595570644</v>
+        <v>19.1216948934503</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>27.49182910259744</v>
+        <v>22.56496038640936</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>30.35645390621811</v>
+        <v>24.96877663436189</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>22.656506905946</v>
+        <v>17.28683680969902</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>40.02999669765756</v>
+        <v>38.37582332574202</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>15.43263507933735</v>
+        <v>19.65544928733797</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>17.80229392975848</v>
+        <v>19.68869859309282</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>20.31758506421507</v>
+        <v>21.66901040456904</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>13.30109040942613</v>
+        <v>14.93956197706193</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>27.97695627189164</v>
+        <v>36.39739579737235</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>27.37571275276665</v>
+        <v>23.21286296857503</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>29.79242967318928</v>
+        <v>24.70833474164662</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>23.27922783141355</v>
+        <v>18.75728999561017</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>29.02566350165255</v>
+        <v>21.97456014034726</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>34.94467194697892</v>
+        <v>26.99560303933626</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>38.21094086275013</v>
+        <v>28.74036421086883</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>29.68945136432435</v>
+        <v>21.57643311902221</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>43.46658704264395</v>
+        <v>48.72261521345845</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>46.69877814835333</v>
+        <v>52.91777410070134</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>39.13993658356711</v>
+        <v>44.24669429120717</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>47.87980412823201</v>
+        <v>48.31477891087222</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>54.75939919269037</v>
+        <v>59.97548147506271</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>59.03309542428101</v>
+        <v>65.23201294377878</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>49.19889419975145</v>
+        <v>54.93867434790927</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>44.06245504921749</v>
+        <v>45.15972129331026</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>47.38162245817654</v>
+        <v>48.99044467660799</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>39.6215578767342</v>
+        <v>40.14290481949923</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>49.75647569063555</v>
+        <v>47.77870494674924</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>56.74381165928497</v>
+        <v>58.57178722244822</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>61.16134026477058</v>
+        <v>63.77414222426529</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>50.97999969946028</v>
+        <v>52.58907451583033</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>32.01773893472362</v>
+        <v>39.57599575360304</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>34.928296641876</v>
+        <v>42.91341630807007</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>27.76186158248711</v>
+        <v>35.62103417733658</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>34.50256209272904</v>
+        <v>48.28333717031025</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>41.51438125379357</v>
+        <v>55.12411780448425</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>45.42014341377006</v>
+        <v>59.74969878787688</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>36.05766282011645</v>
+        <v>48.73777792510953</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>36.01080866270166</v>
+        <v>35.51827445090326</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>36.57844110985488</v>
+        <v>33.63671488752546</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>40.17112163385553</v>
+        <v>37.57175949262797</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>30.46720420626144</v>
+        <v>26.74700118790622</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>29.73737104558742</v>
+        <v>26.54960434683276</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>44.14806715964471</v>
+        <v>44.54735057007426</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>45.97765828221412</v>
+        <v>47.61409547872257</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>50.28258438092683</v>
+        <v>53.50245996807352</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>39.61401147166699</v>
+        <v>40.24384103177088</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>42.71247050549569</v>
+        <v>45.04401387770976</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>44.07296849114302</v>
+        <v>41.92755707679441</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>45.91397392891875</v>
+        <v>43.54063682016303</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>50.2675858844972</v>
+        <v>49.00976023048443</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>39.28488114384412</v>
+        <v>34.22223649925633</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>43.07938210381458</v>
+        <v>42.43463649742131</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>35.9757918570429</v>
+        <v>44.36085132407166</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>37.61511123932649</v>
+        <v>43.15323273849577</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>41.66321642668746</v>
+        <v>48.24031750786533</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>31.24857402519309</v>
+        <v>34.45168834083221</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>32.43289009250609</v>
+        <v>40.42545266304491</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>33.15002658438903</v>
+        <v>30.30311673801961</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>36.64008210197501</v>
+        <v>33.51711936944352</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>28.18477236189491</v>
+        <v>24.41270869621693</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>35.34375583455767</v>
+        <v>31.55794060402472</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>41.24089991327147</v>
+        <v>35.48659627190062</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>45.64927333874411</v>
+        <v>39.12410333167281</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>34.87477430741892</v>
+        <v>27.81438566139196</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>47.0502587497469</v>
+        <v>52.30370402618991</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>51.33280949725962</v>
+        <v>58.02398574743965</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>41.89307298917887</v>
+        <v>46.36978617030026</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>51.67411379416054</v>
+        <v>53.08788092057711</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>58.48851810521322</v>
+        <v>62.45908109701286</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>63.87655851147088</v>
+        <v>69.40939898143273</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>51.87407647978078</v>
+        <v>55.02169893004168</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>47.43660543913489</v>
+        <v>48.81799418367866</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>51.78161488370168</v>
+        <v>54.10870343451151</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>42.17260044511144</v>
+        <v>42.4042436436229</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>53.30370544332605</v>
+        <v>52.13675357553953</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>60.18115314956149</v>
+        <v>61.49656698619873</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>65.6820718905725</v>
+        <v>68.31811838316219</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>53.38279309487552</v>
+        <v>53.26288773290693</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>36.78841814160972</v>
+        <v>43.74637592208283</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>40.77228331532341</v>
+        <v>48.57116360670699</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>31.65565835016123</v>
+        <v>38.65969261356601</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>39.71097234219364</v>
+        <v>51.84844620761827</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>46.61942125817643</v>
+        <v>58.37089289458879</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>51.66312171359161</v>
+        <v>64.67403637626515</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>40.05190379748892</v>
+        <v>50.30011714252769</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>30.33224844129928</v>
+        <v>28.69459134665011</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>31.86422658947305</v>
+        <v>28.61857243115398</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>34.94386063293164</v>
+        <v>31.57840693829875</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>26.07811774066224</v>
+        <v>22.18857446953255</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>31.70827200194142</v>
+        <v>27.23561109960934</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>39.09895818274934</v>
+        <v>40.60287199711244</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>41.86404806854694</v>
+        <v>45.37174945801951</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>45.65878137004355</v>
+        <v>50.33496573485857</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>35.79968304946333</v>
+        <v>38.21520087371639</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>44.85847662829543</v>
+        <v>46.49897000273602</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>39.24961050714931</v>
+        <v>38.96183986646668</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>42.01123581929915</v>
+        <v>42.0682406392537</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>45.86130560384101</v>
+        <v>46.7753956180746</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>35.67471067677367</v>
+        <v>32.77891310890046</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>45.41966588053371</v>
+        <v>45.39882411347608</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>30.61654063688153</v>
+        <v>40.63346797451644</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>33.21426268513759</v>
+        <v>41.01011586321545</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>36.74270389802513</v>
+        <v>45.45481779504813</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>27.1634635604222</v>
+        <v>32.32382885427403</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>34.56248567742226</v>
+        <v>44.01023618439372</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>35.44300631512579</v>
+        <v>31.18079940601519</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>38.92744551907154</v>
+        <v>34.40859005110617</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>30.37680540503006</v>
+        <v>24.92525046763557</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>36.38783535271347</v>
+        <v>30.26060330911335</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>42.87163997716016</v>
+        <v>35.41773274846135</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>47.27411014669153</v>
+        <v>38.89428709289587</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>36.41368228796887</v>
+        <v>28.00010062739058</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>49.50242214142646</v>
+        <v>53.86803449258107</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>53.78615422672448</v>
+        <v>59.60677336781467</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>44.22211537006132</v>
+        <v>47.3572752784743</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>52.99201681744979</v>
+        <v>53.43958732922724</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>60.39626194780303</v>
+        <v>63.96741433866054</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>65.78416049287807</v>
+        <v>70.76266459567412</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>53.67258012283925</v>
+        <v>56.61304368196392</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>50.06333588465453</v>
+        <v>51.62992234953271</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>54.415548942512</v>
+        <v>57.11375155982492</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>44.66710050450702</v>
+        <v>44.44724091814624</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>54.78944709847337</v>
+        <v>53.71171715363855</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>62.25541608784427</v>
+        <v>64.03972978424588</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>67.76409957744814</v>
+        <v>70.89038977679891</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>55.34320154258118</v>
+        <v>55.70046355077709</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>39.23490572101524</v>
+        <v>47.26432956427293</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>43.2175756986114</v>
+        <v>52.43484071525617</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>33.98721049607909</v>
+        <v>41.28806716706414</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>40.92689064634591</v>
+        <v>54.32718873823424</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>48.44216639693246</v>
+        <v>61.7705947193073</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>53.48414594094635</v>
+        <v>68.29377696255503</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>41.77432757036597</v>
+        <v>53.43529206645297</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>18.08086624152768</v>
+        <v>12.64657793894792</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>20.6118483431517</v>
+        <v>17.17705677248605</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>22.77699787838015</v>
+        <v>18.45161388937601</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>17.97413007802572</v>
+        <v>17.99231398231417</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>23.07488070431418</v>
+        <v>16.61386916487444</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>27.74450396549664</v>
+        <v>23.2825164861433</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>31.51561830356803</v>
+        <v>33.39760043227186</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>34.37837616130089</v>
+        <v>36.62848370971643</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>28.59018063765176</v>
+        <v>33.59994094324989</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>37.84545184326709</v>
+        <v>39.54389200939572</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>28.13536628942616</v>
+        <v>22.58051933986496</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>31.95593630394335</v>
+        <v>30.84988253487267</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>34.89069425728832</v>
+        <v>33.79726586714476</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>28.75688817910545</v>
+        <v>29.04371331523101</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>38.37920811811307</v>
+        <v>37.45573075108663</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>18.73520109995255</v>
+        <v>22.96259716707615</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>22.3910835086069</v>
+        <v>27.51204775240407</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>24.985528106313</v>
+        <v>30.03485854902701</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>19.54956182920158</v>
+        <v>26.19907851863922</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>26.60419003332763</v>
+        <v>33.61367746463438</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>26.34379073580412</v>
+        <v>20.63203368913936</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>28.63961758820642</v>
+        <v>22.20303342325329</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>22.95340015288285</v>
+        <v>17.25127710795893</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>29.08507616129402</v>
+        <v>20.53041020536428</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>35.36466904536081</v>
+        <v>26.11891922362128</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>38.35347117924319</v>
+        <v>27.6855078830917</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>30.82288485625284</v>
+        <v>21.66550866388689</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>42.00977082118739</v>
+        <v>47.84294123291006</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>45.11180062813919</v>
+        <v>52.06716338515948</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>38.37081953958999</v>
+        <v>44.19333940781236</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>47.5071122883468</v>
+        <v>49.24267885046866</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>54.72920090337364</v>
+        <v>61.29463779835221</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>58.70411188838861</v>
+        <v>66.26084087328363</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>49.86688331956484</v>
+        <v>56.93272259375523</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>42.59894496647621</v>
+        <v>44.34411962648432</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>45.78467056489254</v>
+        <v>48.19410318366621</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>38.84301183147524</v>
+        <v>40.10898080812232</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>49.27910970926864</v>
+        <v>48.34337119546519</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>56.63047448214885</v>
+        <v>59.72296382995166</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>60.74040970106543</v>
+        <v>64.56637607559597</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>51.57056726336169</v>
+        <v>54.42451241916268</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>30.83556483298905</v>
+        <v>36.8567259528843</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>33.61785032781046</v>
+        <v>40.20708484357341</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>27.28203929760883</v>
+        <v>33.83521081849882</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>34.4425908961864</v>
+        <v>45.90030977282167</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>41.81066909176584</v>
+        <v>53.29367748726438</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>45.41969509146371</v>
+        <v>57.58958145804937</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>37.06612109462178</v>
+        <v>47.81960235063168</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>28.71895651410566</v>
+        <v>25.98817100649872</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>28.07813018227026</v>
+        <v>23.03700505567991</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>30.77261543776295</v>
+        <v>25.74555554740418</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>21.6328872140896</v>
+        <v>15.52942105413367</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>35.35943450428616</v>
+        <v>27.41001193897991</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>38.6670511211334</v>
+        <v>39.55505543033193</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>39.22866545845981</v>
+        <v>41.74127559646659</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>42.63778680035023</v>
+        <v>46.47747700259062</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>32.42865164872244</v>
+        <v>33.19299213754095</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>50.02354375914524</v>
+        <v>48.91475809482488</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>39.20560784823368</v>
+        <v>39.55620139101549</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>39.80541867479948</v>
+        <v>39.8018424455006</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>43.29248325370769</v>
+        <v>44.34559568404957</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>32.72796971663232</v>
+        <v>29.08177958154668</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>50.73256396014874</v>
+        <v>47.7937544274586</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>29.68907040553135</v>
+        <v>40.68810735331407</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>30.09819952151794</v>
+        <v>37.3919927558499</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>33.24275954029736</v>
+        <v>41.60726312701386</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>23.34567613422852</v>
+        <v>27.23485649521242</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>39.0038847249692</v>
+        <v>47.62333830626785</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>38.63648912714278</v>
+        <v>33.29275852639105</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>41.77974258747081</v>
+        <v>36.66465358538589</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>33.67557601973566</v>
+        <v>27.64246948275941</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>36.00844120337551</v>
+        <v>27.47442813365198</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>41.9791486497184</v>
+        <v>33.57651896341</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>45.68767234835749</v>
+        <v>36.67529474624688</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>35.85322807191174</v>
+        <v>26.9214437753862</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>54.22750220634117</v>
+        <v>58.92890907707549</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>58.18921719850253</v>
+        <v>64.96417312759405</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>49.00247882518545</v>
+        <v>52.93475528727481</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>54.13185913736227</v>
+        <v>52.19363117028718</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>61.0825046289562</v>
+        <v>64.71604291988396</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>65.79467191928299</v>
+        <v>71.26394892098318</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>54.63226085913126</v>
+        <v>58.21309392750815</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>54.96425070040294</v>
+        <v>56.27167537438427</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>59.016651383891</v>
+        <v>62.07457476457498</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>49.61587702138674</v>
+        <v>49.52830543730117</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>56.1118883136178</v>
+        <v>51.34327555531344</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>63.17249436372269</v>
+        <v>63.16914898611801</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>68.02746336392173</v>
+        <v>69.72465390729336</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>56.52103309400098</v>
+        <v>55.6603892241609</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>43.25886880120777</v>
+        <v>52.43256782123883</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>46.91156639365442</v>
+        <v>57.90333733416895</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>38.10059218136009</v>
+        <v>46.78522212896295</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>41.2736277101328</v>
+        <v>54.24745799011308</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>48.34972811771182</v>
+        <v>62.01986184604017</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>52.70286409789414</v>
+        <v>68.16296903473618</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>41.99587408413394</v>
+        <v>54.09291954756013</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>29.76157224072534</v>
+        <v>31.69830661051521</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>27.91705215123566</v>
+        <v>24.17824111589093</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>30.83118034533808</v>
+        <v>27.00970612414106</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>20.21040247192584</v>
+        <v>13.48260955699729</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>37.8838403068698</v>
+        <v>34.41357115840361</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>37.11940291375051</v>
+        <v>39.58910111328231</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>36.37377965752623</v>
+        <v>36.53935307793826</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>39.9065848896607</v>
+        <v>41.04968615826168</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>28.37720018913631</v>
+        <v>24.92534547625704</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>49.30619526707675</v>
+        <v>50.07712088430988</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>37.41818881958351</v>
+        <v>38.24771995476135</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>36.70372461758336</v>
+        <v>33.80317325170979</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>40.2890788018541</v>
+        <v>38.12309189881717</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>28.47266755429766</v>
+        <v>20.24912951205683</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>49.85130353528479</v>
+        <v>49.35582954895594</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>29.95487354182006</v>
+        <v>40.58417146031404</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>29.02025518548256</v>
+        <v>33.2045293995705</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>32.3297963762584</v>
+        <v>37.30383773924203</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>21.01532540386566</v>
+        <v>20.18114566233224</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>40.49532635630223</v>
+        <v>49.08777770781131</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>41.57425724950794</v>
+        <v>38.65610587291248</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>45.50053546508475</v>
+        <v>43.03573896545547</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>36.06677127509955</v>
+        <v>32.03781778695051</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>38.7348416921119</v>
+        <v>32.64182000937198</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>44.54445904090576</v>
+        <v>37.6294410285414</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>48.97560364186015</v>
+        <v>41.55804542677101</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>38.06790947587433</v>
+        <v>30.21920618578861</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>53.89754005549052</v>
+        <v>57.8606837951466</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>58.54321011816261</v>
+        <v>64.48540215945866</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>48.19150729849906</v>
+        <v>50.95762419945038</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>53.16620108420338</v>
+        <v>52.40327946523441</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>59.8725866381433</v>
+        <v>62.73429831674609</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>65.18387098181248</v>
+        <v>69.61484549493464</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>53.16166747066193</v>
+        <v>55.48519218433732</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>54.46384492508393</v>
+        <v>56.04780489577205</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>59.1763265607831</v>
+        <v>62.50613626663047</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>48.65813224853545</v>
+        <v>48.45502553681483</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>54.87744949052936</v>
+        <v>52.62907987187209</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>61.65442170141199</v>
+        <v>62.79039557619669</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>67.07849347103733</v>
+        <v>69.76063132608184</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>54.77794234782599</v>
+        <v>54.68867194925966</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>45.09107118975999</v>
+        <v>52.62379120209453</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>49.48353061100344</v>
+        <v>58.82161423166704</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>39.40401431696494</v>
+        <v>46.07285619677575</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>42.76109506646699</v>
+        <v>54.3069652354425</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>49.54549341900263</v>
+        <v>61.16224458187224</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>54.55994675023145</v>
+        <v>67.83892752005971</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>42.87371593612741</v>
+        <v>52.81821288742292</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>11.63891119217069</v>
+        <v>9.496434596106933</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>13.62848930098685</v>
+        <v>10.3090765808046</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>15.39701956325332</v>
+        <v>10.78306231563579</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>9.714650230762553</v>
+        <v>7.661563304728752</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>23.01510754284558</v>
+        <v>19.56117407117361</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>18.7251001499652</v>
+        <v>15.77927113083049</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>21.79676118709088</v>
+        <v>20.71261054916353</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>24.1727550269935</v>
+        <v>22.78190078956964</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>17.66267212939823</v>
+        <v>17.47244268402779</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>34.9702173862189</v>
+        <v>36.65732364951164</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>18.53498543965205</v>
+        <v>12.90630578834453</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>21.61003983334982</v>
+        <v>16.25649303914331</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>24.03608024870747</v>
+        <v>17.92909521188557</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>17.241339210968</v>
+        <v>11.27739724211268</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>35.3779021316403</v>
+        <v>35.59155949618834</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>11.17342635888028</v>
+        <v>13.32457706389573</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>14.12043373730562</v>
+        <v>14.11746999442853</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>16.25587560232015</v>
+        <v>15.57828364715777</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>10.01697994917584</v>
+        <v>9.516635477158172</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>25.64817426525958</v>
+        <v>33.55152910014944</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>25.89490020061143</v>
+        <v>21.89078702085502</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>28.20925409032447</v>
+        <v>23.7717403863668</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>22.26038453181225</v>
+        <v>17.47157101536339</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>30.69447624338504</v>
+        <v>21.46253171786675</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>36.80633404307075</v>
+        <v>26.77438545418017</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>40.17697205997126</v>
+        <v>29.07883940937689</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>32.0883491352833</v>
+        <v>21.97992058093229</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>38.60529570821734</v>
+        <v>41.96982553778729</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>41.6078878881347</v>
+        <v>46.10284686662624</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>34.78480148002197</v>
+        <v>37.29448527784729</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>46.08752138381372</v>
+        <v>45.33466723471369</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>52.99059422053561</v>
+        <v>55.55604788224085</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>57.22746970886771</v>
+        <v>60.87470593123052</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>48.03920118486968</v>
+        <v>50.83395193616485</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>39.01031668608099</v>
+        <v>39.72418664064631</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>42.07432193690845</v>
+        <v>43.46804579914842</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>35.08788141975749</v>
+        <v>34.56766423120089</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>47.5864556627597</v>
+        <v>46.65926761033668</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>54.53915974344704</v>
+        <v>56.45474530057388</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>58.88817087759382</v>
+        <v>61.72320951311766</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>49.4176239494562</v>
+        <v>50.87972590978258</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>29.32181986129392</v>
+        <v>34.88970401509408</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>32.05432938592587</v>
+        <v>38.29725654828412</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>25.54872283557508</v>
+        <v>30.66594096955615</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>35.03461289514785</v>
+        <v>46.8693255376559</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>42.06009155741106</v>
+        <v>53.69230153841142</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>45.98696852031442</v>
+        <v>58.6230743539479</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>37.18068786745046</v>
+        <v>47.77527585630126</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>7.844120820373995</v>
+        <v>5.474477046040075</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>7.702851551443462</v>
+        <v>4.847357019432724</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>9.171275017848064</v>
+        <v>4.96112842355047</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>3.6512252156393</v>
+        <v>2.431114406330671</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>9.395223905754275</v>
+        <v>4.727360255594803</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>16.3795321552858</v>
+        <v>12.18015621022963</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>17.44075874576519</v>
+        <v>16.43735457697604</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>19.5923874377917</v>
+        <v>18.36578806515317</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>13.11203176801976</v>
+        <v>13.29993627806751</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>22.41976237803338</v>
+        <v>18.47735750662305</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>16.86414608563955</v>
+        <v>12.15799128503026</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>17.95708212455892</v>
+        <v>14.47636167407714</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>20.18164423685667</v>
+        <v>16.15553954161003</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>13.35606717038443</v>
+        <v>9.223809254861045</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>23.03392133042701</v>
+        <v>17.53898735238975</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>7.726902142148601</v>
+        <v>11.64094994146032</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>8.633838890604476</v>
+        <v>10.85358849116997</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>10.5129905960496</v>
+        <v>12.14405705846205</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>4.357047006701446</v>
+        <v>6.204852712625307</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>11.72262271661632</v>
+        <v>15.69767935940361</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>11.29466920952484</v>
+        <v>7.029251457371064</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>12.76461028614643</v>
+        <v>6.718134625287757</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>7.446894435837699</v>
+        <v>2.915875466818136</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>16.95146455206658</v>
+        <v>10.6819728762303</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>20.8521172148036</v>
+        <v>12.9670264697247</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>22.82794020562552</v>
+        <v>12.56746994752675</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>15.53964074081713</v>
+        <v>7.030438785010006</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>25.22037476900293</v>
+        <v>24.49495850173422</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>27.46293925473229</v>
+        <v>26.5684299735976</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>21.15985708508912</v>
+        <v>20.13625479781366</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>33.81256257095303</v>
+        <v>30.32016792051622</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>38.64211093365438</v>
+        <v>38.56495580370098</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>41.57614108638813</v>
+        <v>41.36551318649312</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>33.04503223499324</v>
+        <v>32.80115717133597</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>25.87276744614385</v>
+        <v>21.92601453700947</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>28.19888843194452</v>
+        <v>23.67391267560754</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>21.69726768153478</v>
+        <v>16.86038219916658</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>35.68484621792034</v>
+        <v>29.91856692132533</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>40.62063787702039</v>
+        <v>37.44499393426192</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>43.69022624202867</v>
+        <v>40.16715494962232</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>34.82526460487127</v>
+        <v>30.66641808305016</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>14.55763701060037</v>
+        <v>16.9719404889941</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>16.48076430201846</v>
+        <v>18.37860325141628</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>10.5595756873204</v>
+        <v>13.15018528268663</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>21.2411804791618</v>
+        <v>30.37392977082932</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>26.17089363868042</v>
+        <v>34.43937118862914</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>28.73448465931709</v>
+        <v>36.71356988372952</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>20.66309285730074</v>
+        <v>27.46862990001648</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>36.29987031121742</v>
+        <v>38.4652218926035</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>36.49963014058582</v>
+        <v>35.73021359981524</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>39.62717742979085</v>
+        <v>38.78204176036365</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>30.65838982776122</v>
+        <v>29.2195324672072</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>27.31535449220686</v>
+        <v>23.04641283035279</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>44.6452135335205</v>
+        <v>47.81182422947253</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>46.03935933057823</v>
+        <v>50.06639253164582</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>49.83326469548329</v>
+        <v>55.00886582202676</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>39.9359755118999</v>
+        <v>43.00393051201453</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>40.00406180836141</v>
+        <v>40.32212614989363</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>44.57661081040125</v>
+        <v>45.86226973939969</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>46.00224296180366</v>
+        <v>46.53264957388606</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>49.85099755634715</v>
+        <v>51.22553908242783</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>39.6438142083214</v>
+        <v>37.38272674114039</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>40.55762892717948</v>
+        <v>39.69771157264819</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>36.76653759564967</v>
+        <v>45.53736133995375</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>37.98260259150445</v>
+        <v>43.33565540286774</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>41.53456864914995</v>
+        <v>47.64719456243073</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>31.88730374372259</v>
+        <v>34.63780868088738</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>30.26291232436006</v>
+        <v>37.17755426866309</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>30.43601313023392</v>
+        <v>25.82336373112093</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>33.67168569060942</v>
+        <v>28.91354368429779</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>25.68892024579675</v>
+        <v>20.32192702553599</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>34.99553398470188</v>
+        <v>30.27698657131061</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>40.22382188206932</v>
+        <v>33.73868171111832</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>44.32785565727129</v>
+        <v>36.78883661364475</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>34.24543096953077</v>
+        <v>27.40710386957806</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>43.99651614919868</v>
+        <v>46.52759485164485</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>47.96924926076903</v>
+        <v>51.97298314466053</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>39.05873388345081</v>
+        <v>40.9161820061945</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>50.81186549116926</v>
+        <v>51.0511041194746</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>56.91890095139013</v>
+        <v>59.71508744464712</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>61.93178830766869</v>
+        <v>65.87803666659542</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>50.69985741175498</v>
+        <v>53.67576919374079</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>44.57074191928972</v>
+        <v>44.69913208132405</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>48.61296067716364</v>
+        <v>49.92844012856894</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>39.52534374351512</v>
+        <v>38.42055930965847</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>52.55394772161108</v>
+        <v>52.43990735273996</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>58.73440318532734</v>
+        <v>60.73067844429214</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>63.8660501716846</v>
+        <v>66.98415369195919</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>52.33798580240446</v>
+        <v>53.7028626085275</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>34.2712712831799</v>
+        <v>39.26382581174369</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>37.96908854987747</v>
+        <v>44.14488255110446</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>29.36120236241002</v>
+        <v>34.06045284085847</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>39.49289950589732</v>
+        <v>52.24365929766601</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>45.68830692941875</v>
+        <v>57.83908787202866</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>50.38450097427984</v>
+        <v>63.71349496686081</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>39.51957208855356</v>
+        <v>50.68399089498509</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>9.320212069653108</v>
+        <v>4.993007257146214</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>10.70765237421185</v>
+        <v>5.555030993957136</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>12.28086668565532</v>
+        <v>5.593105408403616</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>7.118084058257271</v>
+        <v>3.61557091807574</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>12.49294107537292</v>
+        <v>9.201155245896775</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>17.0177595384466</v>
+        <v>13.97101348582236</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>19.48117697877892</v>
+        <v>18.34948422305527</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>21.66548948684228</v>
+        <v>20.06097193124787</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>15.65547459816564</v>
+        <v>15.60926230032323</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>25.03472410711417</v>
+        <v>29.58139268657847</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>16.87890121284011</v>
+        <v>11.27329159489275</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>19.33678136626244</v>
+        <v>14.17182386478341</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>21.55690274356456</v>
+        <v>15.38726931510373</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>15.28338867973583</v>
+        <v>9.830234232658057</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>25.25190876281724</v>
+        <v>25.02478264785507</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>9.184955181727927</v>
+        <v>9.887383566113961</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>11.5033161137036</v>
+        <v>10.23665903611883</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>13.43767260301278</v>
+        <v>11.07241127672133</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>7.717649740673792</v>
+        <v>6.638471204279927</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>15.24856163545416</v>
+        <v>18.67859796125579</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>15.0622447580467</v>
+        <v>10.27778587606129</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>16.78489491747733</v>
+        <v>10.84006647899482</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>11.63810996006122</v>
+        <v>6.62433684365466</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>22.45390318851685</v>
+        <v>15.61814065642784</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>27.77809057809127</v>
+        <v>18.89479957644221</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>30.27498292452305</v>
+        <v>19.46657821751788</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>22.95578202074507</v>
+        <v>13.68215423642588</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>28.37152974815607</v>
+        <v>33.39569291625733</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>30.78192847484534</v>
+        <v>36.22271168244241</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>24.75323636046511</v>
+        <v>29.34226374487311</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>38.40227823429451</v>
+        <v>42.2579642897776</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>44.50983944837755</v>
+        <v>50.13784210454168</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>47.85924736109282</v>
+        <v>53.68656889293982</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>39.41779234425219</v>
+        <v>44.68424558416981</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>28.59531234414589</v>
+        <v>27.77354883326242</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>31.04631764853299</v>
+        <v>29.97066201277337</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>24.89349868580115</v>
+        <v>23.34848104907375</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>39.78145096643128</v>
+        <v>40.03369007876534</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>45.93032738706487</v>
+        <v>47.49301639225835</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>49.36514455870392</v>
+        <v>50.68811279522664</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>40.67148574497715</v>
+        <v>41.20840047958486</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>18.610549165099</v>
+        <v>18.52812922904398</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>20.73281960361183</v>
+        <v>20.19338468052195</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>15.04714524134017</v>
+        <v>15.34256323876337</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>26.98320712453019</v>
+        <v>35.54317007707439</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>33.18650118521352</v>
+        <v>40.03927235941595</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>36.20641283153581</v>
+        <v>42.69060467317707</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>28.17386121718019</v>
+        <v>33.8585645219545</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>8.087901928720049</v>
+        <v>1.169246172088233</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>8.896540204753446</v>
+        <v>-0.09477084080240772</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>10.85855582498267</v>
+        <v>0.2436622447346117</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>4.139182791151306</v>
+        <v>-3.345216799146343</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>26.59972753421988</v>
+        <v>22.45673849015333</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>15.47495787524304</v>
+        <v>7.810986684234766</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>17.46119341282448</v>
+        <v>10.93392988741603</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>20.07400921079246</v>
+        <v>12.98641452573885</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>12.44451465193237</v>
+        <v>6.925399980512591</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>38.46551740935526</v>
+        <v>38.09534317359925</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>16.06093026890521</v>
+        <v>8.508715546221222</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>18.05613484558427</v>
+        <v>10.16695625239479</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>20.72454856522988</v>
+        <v>11.98311670762325</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>12.77544762095174</v>
+        <v>4.11422681540121</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>39.24314401559445</v>
+        <v>38.07126047581539</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>7.617504660719071</v>
+        <v>11.66469967137921</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>9.439498971482461</v>
+        <v>10.76102094355912</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>11.79670027199403</v>
+        <v>12.37321198024432</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>4.444324410727955</v>
+        <v>5.400017286131636</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>28.96175020115113</v>
+        <v>36.85579052849589</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>29.46782479013573</v>
+        <v>26.03744471088759</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>32.41373194079391</v>
+        <v>28.29115983061132</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>24.98459406519356</v>
+        <v>21.59211880111751</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>32.97628392018343</v>
+        <v>26.07773595455316</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>38.65275361919844</v>
+        <v>31.23275457514125</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>42.55533501784062</v>
+        <v>34.06787163429176</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>32.7707066624419</v>
+        <v>25.25786267315323</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>42.20356920107434</v>
+        <v>44.90794139728418</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>45.89955434409606</v>
+        <v>49.47151745232051</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>37.52157691904949</v>
+        <v>40.18438683573171</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>48.29021204113172</v>
+        <v>47.0652553008488</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>54.8547286410459</v>
+        <v>57.34252108752615</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>59.69143784121701</v>
+        <v>63.28930324299216</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>48.72151930645427</v>
+        <v>51.39052207103757</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>42.99055341329164</v>
+        <v>43.93452439776394</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>46.75553493453181</v>
+        <v>48.2534711910309</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>38.19475839106346</v>
+        <v>38.51906137710125</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>50.2285663182553</v>
+        <v>48.87068408810947</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>56.86528316014629</v>
+        <v>59.15234378975474</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>61.81825377378102</v>
+        <v>65.13532553426749</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>50.55261463129638</v>
+        <v>52.26139899664469</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>32.72033604967223</v>
+        <v>39.90356842595246</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>36.12977553574241</v>
+        <v>43.92406686247553</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>28.071933053383</v>
+        <v>35.71930473597936</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>37.07237601828645</v>
+        <v>49.32249928814675</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>43.73788643859646</v>
+        <v>56.76597718429402</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>48.2436773983429</v>
+        <v>62.43302457741476</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>37.66171548726111</v>
+        <v>49.89774667189135</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>12.53960127909608</v>
+        <v>9.772832913575307</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>13.52115541385277</v>
+        <v>10.60172654004102</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>15.32106311215359</v>
+        <v>10.86778383734507</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>9.453525390155379</v>
+        <v>8.357830896402142</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>8.364139115289507</v>
+        <v>5.02697170073591</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>19.88084710952367</v>
+        <v>17.16821250213788</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>21.97172932432339</v>
+        <v>22.32296429165953</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>24.4084541538851</v>
+        <v>24.18483715181221</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>17.65645894605488</v>
+        <v>19.39124584027999</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>19.81742188680732</v>
+        <v>19.57684411821156</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>20.04190309077282</v>
+        <v>15.86535212471533</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>22.12740801035398</v>
+        <v>19.43985281146572</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>24.61393208959665</v>
+        <v>20.91123718272748</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>17.5518572383465</v>
+        <v>14.54268789214627</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>20.31725622153977</v>
+        <v>17.34960805994782</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>12.10215048462863</v>
+        <v>14.21620458837531</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>14.04514621432795</v>
+        <v>14.99194799426852</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>16.22847155003944</v>
+        <v>16.24137641455064</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>9.755900543299449</v>
+        <v>10.77639922720576</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>10.19250080132793</v>
+        <v>13.82136459471189</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>10.19703661064073</v>
+        <v>5.57483268967043</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>11.87043134939773</v>
+        <v>5.594602242663331</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>6.951256260671734</v>
+        <v>2.464641819910867</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>19.4306513428537</v>
+        <v>14.91175975156385</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>23.88343341718164</v>
+        <v>18.47992337226371</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>26.75490620163659</v>
+        <v>19.34649558018164</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>18.8327442707769</v>
+        <v>13.68885986509192</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>22.45636472094925</v>
+        <v>23.12582961024686</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>24.83960187843279</v>
+        <v>25.23175608498442</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>19.0290842550252</v>
+        <v>19.74078355826332</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>34.42282519360433</v>
+        <v>34.02746697780852</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>39.71170393837382</v>
+        <v>42.55224604132619</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>43.4741448680236</v>
+        <v>46.20854623938973</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>34.41018586737184</v>
+        <v>37.63851268639043</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>22.9563580616088</v>
+        <v>19.72881850331546</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>25.39997397845187</v>
+        <v>21.39578793421981</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>19.41658376794025</v>
+        <v>15.70305198107765</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>36.06757205144348</v>
+        <v>33.79410020599138</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>41.41640799488054</v>
+        <v>41.99480116709842</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>45.28868690642511</v>
+        <v>45.51087616357079</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>35.93108112922724</v>
+        <v>36.0208032094516</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>12.84645144353355</v>
+        <v>13.14382024371186</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>14.93679986860599</v>
+        <v>14.50372030143282</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>9.462757507620028</v>
+        <v>10.34397163418159</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>23.14532761990206</v>
+        <v>31.55187097555199</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>28.51724573718683</v>
+        <v>36.719206763183</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>31.94804944644908</v>
+        <v>39.97769058287631</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>23.2805865802755</v>
+        <v>30.88986829046543</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>4.048670277959047</v>
+        <v>1.158280009692273</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>4.41405813716862</v>
+        <v>1.098181164593246</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>5.493438210021022</v>
+        <v>0.7544864185314317</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>1.637137021945797</v>
+        <v>0.5009190687620872</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>0.7660051065386781</v>
+        <v>-2.001555059628814</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>10.40904416752371</v>
+        <v>4.725163834332143</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>11.82709535112681</v>
+        <v>8.551954498730101</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>13.5002380254437</v>
+        <v>9.529026695750389</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>8.825187790025556</v>
+        <v>7.280815594566402</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>10.57373272002888</v>
+        <v>6.361229231851677</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>10.83345813687225</v>
+        <v>4.249004731055489</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>12.2573242398294</v>
+        <v>6.766938149143193</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>13.98030466265894</v>
+        <v>7.39717326374835</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>9.006178870036289</v>
+        <v>3.688768697053597</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>11.05535458290735</v>
+        <v>4.968668782090575</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>3.178838871505928</v>
+        <v>5.171845465119087</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>4.455614405109877</v>
+        <v>5.259218710743237</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>5.88422126924984</v>
+        <v>5.793807867055339</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>1.493282381418606</v>
+        <v>2.854055966252851</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>1.680521949444081</v>
+        <v>4.761238104648527</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>1.67599273448787</v>
+        <v>-1.838950165408054</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>2.691657593815705</v>
+        <v>-2.286493058696287</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>-0.6286111349065848</v>
+        <v>-3.149741506798783</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>13.73154458036956</v>
+        <v>8.202909145318369</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>17.71111965856494</v>
+        <v>11.18564232146809</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>19.7404638565269</v>
+        <v>11.41489431889221</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>13.83567090535422</v>
+        <v>8.331969758253781</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>12.26988465040993</v>
+        <v>9.24770863713778</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>13.9544973701684</v>
+        <v>10.56596690615669</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>9.803304531817515</v>
+        <v>7.700836871061366</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>27.05662269430584</v>
+        <v>22.54165686532257</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>31.84543646370657</v>
+        <v>30.1975429010991</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>34.71419112057676</v>
+        <v>32.90694333345326</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>27.73869983263116</v>
+        <v>27.21698855199781</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>12.76702228159792</v>
+        <v>6.897014160644289</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>14.5129147701984</v>
+        <v>7.803792938966009</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>10.19497123994554</v>
+        <v>4.77239280123241</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>28.59083162989153</v>
+        <v>22.69564710028382</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>33.44945966288891</v>
+        <v>30.22714970559008</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>36.42506984339587</v>
+        <v>32.79586669333128</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>29.17156648446661</v>
+        <v>26.34339995331193</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>3.377352289830533</v>
+        <v>4.127006993193984</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>4.778498035509095</v>
+        <v>4.88648898325782</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>0.9628080547918607</v>
+        <v>3.163479702949079</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>16.56241958620486</v>
+        <v>22.7181412382978</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>21.42837916688312</v>
+        <v>27.48353403128256</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>23.97576756277612</v>
+        <v>29.89522468586144</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>17.39802384186705</v>
+        <v>23.78790132863468</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>24.37892774264463</v>
+        <v>20.56501055511345</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>26.19523222352333</v>
+        <v>22.72637281133574</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>28.37619084622505</v>
+        <v>24.13037025213304</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>22.41157687616868</v>
+        <v>20.76978089891545</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>16.30764011308279</v>
+        <v>7.576682354585575</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>34.51967657505065</v>
+        <v>33.49923168299041</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>37.59466716132894</v>
+        <v>41.45899657302171</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>40.48587992101481</v>
+        <v>44.9094682849007</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>33.52524596274885</v>
+        <v>38.89500591395583</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>31.10401336265402</v>
+        <v>27.16748915628621</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>35.10745683752718</v>
+        <v>35.0940826766441</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>38.21041525767203</v>
+        <v>41.24062807172595</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>41.17542282599231</v>
+        <v>44.42150559059408</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>33.86353738331214</v>
+        <v>36.64117861634944</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>32.01502492669466</v>
+        <v>28.566246644977</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>25.53471203378574</v>
+        <v>29.79314531671486</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>28.46444644388223</v>
+        <v>32.21322276065504</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>31.08346704723076</v>
+        <v>34.83851593007873</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>24.45462456282852</v>
+        <v>28.30245556733824</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>19.90931918264181</v>
+        <v>24.53164393869598</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>19.44112978570517</v>
+        <v>10.6323537378936</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>21.52869754282075</v>
+        <v>11.5590916757593</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>16.3137893160831</v>
+        <v>8.150384559421042</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>26.92744530014868</v>
+        <v>16.6530269875572</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>32.67308170567572</v>
+        <v>19.94092598941897</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>35.68254545308963</v>
+        <v>21.08369216721614</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>27.89012601495489</v>
+        <v>15.13104922756415</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>35.16548248203467</v>
+        <v>34.91217400744419</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>38.05623549406923</v>
+        <v>38.47446311659559</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>31.81470309355942</v>
+        <v>32.40320569006011</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>45.55801809593848</v>
+        <v>42.40836340218564</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>52.25209698940825</v>
+        <v>52.53733750697578</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>56.25377653110262</v>
+        <v>57.13081261177908</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>47.16919639236328</v>
+        <v>48.06875822972518</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>36.11077890261072</v>
+        <v>34.92587288104693</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>39.08759581276199</v>
+        <v>38.18775218554237</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>32.63687248381679</v>
+        <v>31.81601183770167</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>47.75842173749061</v>
+        <v>44.94564875762154</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>54.5472204452788</v>
+        <v>54.46796461513633</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>58.68905210383015</v>
+        <v>59.04646443384861</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>49.25713553056451</v>
+        <v>48.98515416253401</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>24.01151812620776</v>
+        <v>26.93740580878329</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>26.58081975604407</v>
+        <v>29.69048055640643</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>20.7374582671366</v>
+        <v>24.90517637880026</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>32.52898911043548</v>
+        <v>41.9984357503923</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>39.34450263506989</v>
+        <v>47.31172972505318</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>42.98007212596758</v>
+        <v>51.26393503996069</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>34.36576274334659</v>
+        <v>41.50667446289251</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>33.99396741093836</v>
+        <v>34.18143564592626</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>35.1836585058447</v>
+        <v>34.49121543085827</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>38.09925212737683</v>
+        <v>37.39316484503087</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>29.74339018104997</v>
+        <v>28.61364991693551</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>25.71744412400778</v>
+        <v>21.01793542455329</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>41.78827049873934</v>
+        <v>43.53783468187991</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>44.16392945368039</v>
+        <v>48.43690220640224</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>47.74713874178945</v>
+        <v>53.17244390263361</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>38.4977853406547</v>
+        <v>42.11920771152495</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>38.08623614192351</v>
+        <v>38.9812195452029</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>41.8621197837614</v>
+        <v>40.88284609211765</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>44.24242445740967</v>
+        <v>44.47738947925421</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>47.87182838053734</v>
+        <v>48.84789268421103</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>38.32359562657983</v>
+        <v>36.22563792923932</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>38.61747590037524</v>
+        <v>36.73765574978555</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>34.06201360633049</v>
+        <v>42.23680049677377</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>36.26802490018172</v>
+        <v>43.13621914513277</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>39.60284514557794</v>
+        <v>47.20289153236103</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>30.59950785029337</v>
+        <v>35.44684616709229</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>28.33436998808347</v>
+        <v>34.66588562093458</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>28.4243800478969</v>
+        <v>23.24440942856157</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>31.12602907467809</v>
+        <v>25.54648461571539</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>24.04889661908309</v>
+        <v>18.46162753650244</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>31.28086681521945</v>
+        <v>26.72838522711408</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>36.63838825020891</v>
+        <v>29.71181273300204</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>40.23716820792414</v>
+        <v>32.29082792286195</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>30.80355675498139</v>
+        <v>22.83404179963981</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>41.63175652772759</v>
+        <v>44.3580118942577</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>45.07519622097274</v>
+        <v>48.99534264018912</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>37.08068673299046</v>
+        <v>39.53835126914493</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>47.02704166806835</v>
+        <v>48.23046090169147</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>53.22219780891398</v>
+        <v>56.31505357924072</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>57.74561611786542</v>
+        <v>62.02895999115309</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>47.14612581503934</v>
+        <v>49.6406496405569</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>42.17232238208418</v>
+        <v>41.32090171034369</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>45.67424761673779</v>
+        <v>45.55743384598998</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>37.5193382661342</v>
+        <v>35.94775886691209</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>48.69707860261006</v>
+        <v>46.71417351836546</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>54.94719739096555</v>
+        <v>54.84826281918584</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>59.57528332692041</v>
+        <v>60.42980403097301</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>48.69392076579641</v>
+        <v>47.29738251639598</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>31.89695386894339</v>
+        <v>36.39648378874589</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>35.05050192107595</v>
+        <v>40.24300271159496</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>27.37188130576842</v>
+        <v>32.28882194164274</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>35.586342778233</v>
+        <v>46.24985492255121</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>41.87567526366368</v>
+        <v>51.56279380902845</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>46.06401434116148</v>
+        <v>56.68493061315723</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>35.84938926859468</v>
+        <v>44.10459976058013</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>31.66994900737678</v>
+        <v>31.89976126542791</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>31.80188354702175</v>
+        <v>28.47105127709449</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>34.61067691565572</v>
+        <v>31.02504994140334</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>26.21661951633518</v>
+        <v>23.02723207096692</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>27.95738082720785</v>
+        <v>21.0549135955751</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>41.61565119563238</v>
+        <v>42.25923008752254</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>43.08224763139842</v>
+        <v>44.65703906961235</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>46.62779383953237</v>
+        <v>49.2835792996673</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>37.1944198582808</v>
+        <v>38.66639390268315</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>43.19516763354767</v>
+        <v>40.29770825511252</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>41.80304498272096</v>
+        <v>41.32264285594682</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>43.3218723599166</v>
+        <v>41.6510573026273</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>46.94488324888555</v>
+        <v>46.02359644173153</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>37.14357564682557</v>
+        <v>33.40433392272756</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>43.81890597650597</v>
+        <v>38.8928821857335</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>32.37970400362396</v>
+        <v>41.27193977314113</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>33.6659839884002</v>
+        <v>38.14112565436182</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>36.93798593138738</v>
+        <v>42.05963821255257</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>27.81498571739311</v>
+        <v>30.40591934538154</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>31.62184371821621</v>
+        <v>37.36462028762192</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>30.95544384454539</v>
+        <v>23.58086287027976</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>33.94349371494072</v>
+        <v>26.03367840150674</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>26.25572254616695</v>
+        <v>18.45121846475872</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>32.32639329399102</v>
+        <v>25.48599904223851</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>38.22145795199909</v>
+        <v>28.68311576488257</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>41.98149104108013</v>
+        <v>31.18507726061701</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>32.25509421051765</v>
+        <v>22.20167372119349</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>47.17533206271268</v>
+        <v>47.30927469349579</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>51.00228028002643</v>
+        <v>52.49061192864458</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>42.24238636704131</v>
+        <v>42.22313912444032</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>51.16166151313288</v>
+        <v>48.69903453917483</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>58.06538822289761</v>
+        <v>58.62543272442103</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>62.8579837299911</v>
+        <v>64.6695897421593</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>51.79761505177221</v>
+        <v>52.64717944391076</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>47.84853132041202</v>
+        <v>44.31079498168904</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>51.76904644792381</v>
+        <v>49.21986098839678</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>42.79128772538247</v>
+        <v>38.5208804914438</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>53.09609785146926</v>
+        <v>48.71918107961018</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>60.11629099924057</v>
+        <v>57.85367040059801</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>65.05941731222966</v>
+        <v>63.91347745348804</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>53.63831855698361</v>
+        <v>50.82333655237613</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>35.63863190345358</v>
+        <v>39.17511549878353</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>39.14487814378357</v>
+        <v>43.60908912227054</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>30.76316811254447</v>
+        <v>34.48760381253589</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>37.71934244495094</v>
+        <v>49.66580845621891</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>44.74390799544331</v>
+        <v>54.98185740805507</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>49.16723613415729</v>
+        <v>60.48131238450744</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>38.56357674050236</v>
+        <v>47.58755363875694</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>33.77337044454655</v>
+        <v>35.13112044719213</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>32.14568692751065</v>
+        <v>28.84939248187092</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>34.52981245759479</v>
+        <v>30.7592793970476</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>27.12077750849137</v>
+        <v>23.96680505307583</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>33.03522109237855</v>
+        <v>33.46484368427883</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>43.90851927067163</v>
+        <v>45.38655592855817</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>43.56224586445907</v>
+        <v>44.82685878533302</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>46.67613431532509</v>
+        <v>48.71460080467682</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>38.23503449564014</v>
+        <v>39.40055190656972</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>48.17355729650863</v>
+        <v>51.38344165072101</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>44.68741867305307</v>
+        <v>47.93153411247071</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>44.37581786932224</v>
+        <v>45.32546457559481</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>47.57520237544363</v>
+        <v>49.0841936606847</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>38.752460646598</v>
+        <v>37.64763287881743</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>49.2045379789454</v>
+        <v>53.02199587322151</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>34.92246083053855</v>
+        <v>47.77828245010355</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>34.37246624294291</v>
+        <v>41.72385940491844</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>37.21157013305832</v>
+        <v>45.14292988294818</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>29.08811888779703</v>
+        <v>34.46049290879873</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>36.9271362781887</v>
+        <v>52.14667272206275</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>32.72800413578121</v>
+        <v>28.38922843144666</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>35.17272098082188</v>
+        <v>29.91594574848553</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>28.45685596784413</v>
+        <v>23.83607372688347</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>37.04864734742885</v>
+        <v>37.56513285158086</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>39.92857325984158</v>
+        <v>33.99980502955192</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>42.98874189633905</v>
+        <v>35.49169272337721</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>34.23377432822788</v>
+        <v>28.24242803723575</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>48.78353343339623</v>
+        <v>50.65513490829777</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>52.05754538415472</v>
+        <v>54.71581612475244</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>44.27838555233805</v>
+        <v>46.19943421563083</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>55.87239565259634</v>
+        <v>59.76568269463574</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>59.7270333090155</v>
+        <v>62.84419978416315</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>63.80487263579995</v>
+        <v>67.63701873605015</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>53.72598113198448</v>
+        <v>57.62053353393559</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>49.84851364516722</v>
+        <v>50.75013776621073</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>53.21934500227502</v>
+        <v>54.6271820157067</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>45.21193354087049</v>
+        <v>45.52738826404647</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>58.18087586215274</v>
+        <v>62.10212531816193</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>62.14277788003612</v>
+        <v>64.30406972036241</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>66.37188496776196</v>
+        <v>69.16318791892556</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>55.92318446691166</v>
+        <v>57.95736571215227</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>37.53220361603807</v>
+        <v>46.53693414172385</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>40.48101443925199</v>
+        <v>50.12607476920829</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>33.08951958212521</v>
+        <v>42.21859549286022</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>42.7428926652013</v>
+        <v>63.07237614688375</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>46.67014239107546</v>
+        <v>61.5489519365387</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>50.37353017563221</v>
+        <v>66.01154505795895</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>40.75921485864193</v>
+        <v>54.69808260516703</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>26.94127631936331</v>
+        <v>24.07505006652781</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.36657855080725</v>
+        <v>24.59944664162737</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>31.0166679203349</v>
+        <v>27.00206642396125</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>22.69323060132655</v>
+        <v>19.03246753071554</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>23.26392635152756</v>
+        <v>16.1549374134938</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>36.93988375051482</v>
+        <v>40.44175684629042</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>39.57316080595155</v>
+        <v>45.7007570121712</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>42.957848382477</v>
+        <v>50.38040386773189</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>33.59001571825462</v>
+        <v>39.14036211580789</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>37.76600382442328</v>
+        <v>38.19622960197135</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>37.17331011003959</v>
+        <v>39.53083937035245</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>39.81236818792993</v>
+        <v>43.16462155077977</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>43.24949386957611</v>
+        <v>47.47068356769076</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>33.55493633085341</v>
+        <v>34.50943619484</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>38.42784217127678</v>
+        <v>37.53550695729301</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>27.94180944091681</v>
+        <v>35.86993231549795</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>30.41769189863161</v>
+        <v>36.86006136258072</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>33.52170435113782</v>
+        <v>40.5048332993956</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>24.46672829786705</v>
+        <v>29.04851425456417</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>26.79615615928695</v>
+        <v>31.34665883034085</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>26.13228612684354</v>
+        <v>17.90854850505148</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>28.85113426399767</v>
+        <v>20.05082545470091</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>21.38170271572043</v>
+        <v>13.02511697662266</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>28.12326652944743</v>
+        <v>21.6175779666493</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>33.74167896621945</v>
+        <v>24.93280194799358</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>37.34472814572778</v>
+        <v>27.03632553909748</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>27.60880885656454</v>
+        <v>18.87825170750313</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>41.51114683475794</v>
+        <v>43.23668884584799</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>45.04313893966831</v>
+        <v>48.14687880544855</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>36.53150277320979</v>
+        <v>37.96598842858415</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>46.47170708063934</v>
+        <v>47.64813747140742</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>52.95383422236114</v>
+        <v>56.43614678910708</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>57.56478509171783</v>
+        <v>62.17720985064778</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>46.50617340259118</v>
+        <v>50.2176476150556</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>42.18189010068261</v>
+        <v>41.39115937065327</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>45.77918275811241</v>
+        <v>45.90419570714528</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>37.08665028478595</v>
+        <v>35.44253057527697</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>48.38671870749226</v>
+        <v>47.35069019324118</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>54.93792679055652</v>
+        <v>55.89641043458788</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>59.66524482805012</v>
+        <v>61.49441710941322</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>48.29399913698285</v>
+        <v>48.71079151542975</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>30.57196532595004</v>
+        <v>32.40495482583145</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>33.78416547769021</v>
+        <v>36.2429074400271</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>25.64053448718541</v>
+        <v>27.82859286948393</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>33.55214567243861</v>
+        <v>43.13671927129876</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>40.1567027315268</v>
+        <v>48.81842118617388</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>44.39842277113517</v>
+        <v>53.63706890706747</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>33.79242912754088</v>
+        <v>41.83329704953564</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>14.39829860910093</v>
+        <v>9.589450157784629</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>15.0289354926612</v>
+        <v>9.52773995848781</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>16.75210798327647</v>
+        <v>10.14484259503056</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>10.86352929219372</v>
+        <v>6.933084358261258</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>19.12900935392932</v>
+        <v>13.99895266299232</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>23.0700705539684</v>
+        <v>18.93568347453193</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>24.78238881293272</v>
+        <v>23.26189169541245</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>27.14580019898502</v>
+        <v>25.63704463814099</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>20.34376127461089</v>
+        <v>19.9024566815074</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>32.89406968704311</v>
+        <v>35.27011759799574</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>23.18031442283294</v>
+        <v>18.09744578320282</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>24.93326591780931</v>
+        <v>20.94314689886025</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>27.35045927973268</v>
+        <v>22.9408380649797</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>20.25569906132835</v>
+        <v>15.89166753964094</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>33.32261107927175</v>
+        <v>32.76261196832053</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>14.80214606261748</v>
+        <v>18.90336346045699</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>16.3913315527897</v>
+        <v>18.90220243666212</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>18.49985665242991</v>
+        <v>20.51107845842728</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>12.00523624696441</v>
+        <v>14.31744171783914</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>22.45503759080346</v>
+        <v>31.34986764732937</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>20.87574344659056</v>
+        <v>15.21136405003739</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>22.80516040843428</v>
+        <v>16.43901778442594</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>17.32484694292713</v>
+        <v>10.96376929924788</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>26.21220096066479</v>
+        <v>17.70866495410621</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>30.31416165454446</v>
+        <v>19.54642994549988</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>32.94796546547012</v>
+        <v>20.73373436707532</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>25.3869246285194</v>
+        <v>14.28985247253901</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>35.42048369996719</v>
+        <v>39.67322565172464</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>38.0841816985188</v>
+        <v>43.31949734987972</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>31.64767930528352</v>
+        <v>35.12567474307272</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>43.44158833849987</v>
+        <v>45.21574307482354</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>48.32873920680008</v>
+        <v>52.27473132120029</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>51.86975562489992</v>
+        <v>56.66333521881683</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>43.11061696695315</v>
+        <v>46.95776010158967</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>35.91037857815319</v>
+        <v>36.20321206842782</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>38.6345306686536</v>
+        <v>39.36641205060871</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>32.04307467619148</v>
+        <v>31.29774740072228</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>45.16120422985979</v>
+        <v>44.58021473195691</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>50.14570363260365</v>
+        <v>51.2126731802953</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>53.79754328508896</v>
+        <v>55.38525952833566</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>44.75381521284928</v>
+        <v>45.11859674614085</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>25.0330477751369</v>
+        <v>31.70984893780333</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>27.39701595549027</v>
+        <v>34.40576725104094</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>21.33580377408908</v>
+        <v>27.72326208422391</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>31.38839472779942</v>
+        <v>42.90468997080541</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>36.39870953369834</v>
+        <v>46.25304884840281</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>39.59781322986036</v>
+        <v>49.84013095322135</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>31.28044628967752</v>
+        <v>39.87060732513369</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>21.67696004023885</v>
+        <v>15.50154591648782</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>21.83807616621498</v>
+        <v>14.70614956496123</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>23.93477156617924</v>
+        <v>15.86691042420291</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>17.4720697373533</v>
+        <v>11.47338686536347</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>21.34671637591104</v>
+        <v>13.07646320785967</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>31.85038309829325</v>
+        <v>27.1593566109625</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>33.27999756902612</v>
+        <v>31.81964076847721</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>36.10045162428155</v>
+        <v>34.95033677367871</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>28.61094341017789</v>
+        <v>27.90132040385144</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>36.51806202269876</v>
+        <v>31.95359689807387</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>32.83638985898059</v>
+        <v>33.16231131672434</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>34.28149545212826</v>
+        <v>35.56229376760133</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>37.19112407048559</v>
+        <v>38.612994374182</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>29.31306773865164</v>
+        <v>29.37134894806912</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>37.70050926537625</v>
+        <v>35.45584031486381</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>22.73713836055567</v>
+        <v>32.20651277242867</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>23.9919273012378</v>
+        <v>31.37235902267701</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>26.53676381296103</v>
+        <v>34.04288034841909</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>19.37626153827091</v>
+        <v>25.7402269791137</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>25.13330833845335</v>
+        <v>33.7258228712385</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>22.82443189167791</v>
+        <v>13.67109711741305</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>24.97497844500197</v>
+        <v>14.56141795515878</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>19.01236439086119</v>
+        <v>9.414863859668948</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>25.03364903812416</v>
+        <v>14.47590077356949</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>29.51230151849824</v>
+        <v>15.88121960326272</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>32.28873634621112</v>
+        <v>16.53513455519283</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>24.20671059519275</v>
+        <v>10.58933576599595</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>38.90850850841373</v>
+        <v>36.73082136634953</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>41.8823019976623</v>
+        <v>40.15287889870124</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>34.86004414152086</v>
+        <v>32.45040731441242</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>43.9324106938286</v>
+        <v>38.96164538720388</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>49.3764560021154</v>
+        <v>46.88339045801747</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>53.16479649800458</v>
+        <v>50.8579512240041</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>43.75662035026399</v>
+        <v>41.94355608919231</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>40.10928280675512</v>
+        <v>38.58480462344129</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>43.18235906256403</v>
+        <v>41.84922666319221</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>35.92400678479314</v>
+        <v>33.51661615973138</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>46.37344338205769</v>
+        <v>43.09530333107491</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>51.9082209130767</v>
+        <v>50.00544640137699</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>55.85021763988746</v>
+        <v>54.07161959934886</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>46.06365452376382</v>
+        <v>43.88719079402667</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>27.54540021521647</v>
+        <v>33.6960714006743</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>30.19283797704065</v>
+        <v>36.61915740503095</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>23.56622539778497</v>
+        <v>29.65092561926943</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>30.63780651974341</v>
+        <v>42.31469272111467</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>36.18020452481218</v>
+        <v>45.60878065323708</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>39.59312734916226</v>
+        <v>49.20169114710302</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>30.65830206288453</v>
+        <v>39.12937605218048</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>35.52002420892818</v>
+        <v>36.51800751353805</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>35.73661669598298</v>
+        <v>34.70843939087327</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>38.60028550217494</v>
+        <v>37.40609472904662</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>30.15215647125604</v>
+        <v>29.01169556999746</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>29.79249408685598</v>
+        <v>24.81250261088747</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>43.51039770890623</v>
+        <v>45.29364830620727</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>44.93802206409897</v>
+        <v>48.58198055778267</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>48.45234601759119</v>
+        <v>53.03166129652997</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>39.09771204109518</v>
+        <v>42.43380037252089</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>42.23878169829341</v>
+        <v>40.96387212726799</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>43.64983362828541</v>
+        <v>43.51152855559168</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>45.09081599518829</v>
+        <v>45.23947600930228</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>48.65726785298164</v>
+        <v>49.3866951277031</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>38.98214688798065</v>
+        <v>36.91938438697485</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>42.93656371592009</v>
+        <v>40.81346437376403</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>35.83661918041534</v>
+        <v>43.20497490132213</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>37.08004220202806</v>
+        <v>41.63688800947292</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>40.3522251374595</v>
+        <v>45.59804014932045</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>31.25067304081698</v>
+        <v>33.48413980227995</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>32.63114677687378</v>
+        <v>39.83570361778713</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>32.18285104261361</v>
+        <v>27.69743275265501</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>35.22832526496718</v>
+        <v>30.10201746962958</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>27.61604158866948</v>
+        <v>23.0194292538577</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>33.41211946788022</v>
+        <v>26.7002537725302</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>38.14403080515412</v>
+        <v>30.33010991305508</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>41.83102039321508</v>
+        <v>32.72315159906847</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>32.08585778727244</v>
+        <v>24.13505628946096</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>45.49992096121003</v>
+        <v>47.37036638472418</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>49.27897621451672</v>
+        <v>52.09645309649702</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>40.73389522013694</v>
+        <v>42.65250922788508</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>49.41135371950698</v>
+        <v>47.559295219006</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>55.03249601589039</v>
+        <v>56.53275510768346</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>59.63270791250051</v>
+        <v>62.04381185198644</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>48.71737652676493</v>
+        <v>50.65336862968593</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>46.20437219520345</v>
+        <v>46.05146508249366</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>50.05085122111849</v>
+        <v>50.47729174871419</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>41.31842911181278</v>
+        <v>40.56386949403066</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>51.28369055939122</v>
+        <v>49.35106029782615</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>56.97066081593994</v>
+        <v>57.85887974801848</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>61.68858434584637</v>
+        <v>63.33322634775075</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>50.45999151721737</v>
+        <v>50.84061206956925</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>35.90096911188894</v>
+        <v>41.92965354022652</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>39.40035528804978</v>
+        <v>46.14425175119225</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>31.17128065327251</v>
+        <v>37.20942162458307</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>38.00796638024161</v>
+        <v>48.94333693150683</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>43.71402700592347</v>
+        <v>54.19094621684435</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>47.98787213832364</v>
+        <v>59.35100213005966</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>37.45463486646537</v>
+        <v>46.68633357296463</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>26.69013515117607</v>
+        <v>22.26908101509915</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>27.45265721652565</v>
+        <v>21.95005247532832</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>30.15611614142438</v>
+        <v>24.47399043799665</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>21.79516016182076</v>
+        <v>16.49233225588211</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>24.88329673075848</v>
+        <v>19.05384084026409</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>36.98311683082017</v>
+        <v>39.790891475349</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>38.89245471529667</v>
+        <v>43.89556481503816</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>42.32793582383995</v>
+        <v>48.70623564435999</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>32.91087999340516</v>
+        <v>37.45853845242195</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>39.32437088527978</v>
+        <v>40.57482125107086</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>37.30759726795266</v>
+        <v>39.61075563731992</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>39.22032964725928</v>
+        <v>42.09940245967802</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>42.70985490967257</v>
+        <v>46.56842736492841</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>32.96724053879679</v>
+        <v>33.54608765265851</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>40.02029279994194</v>
+        <v>40.04083782222122</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>27.93273952442934</v>
+        <v>35.51269430384094</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>29.69398351666</v>
+        <v>35.60592679715606</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>32.85072539180447</v>
+        <v>39.43065469098246</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>23.75222634429685</v>
+        <v>27.89345100822007</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>28.47652082449796</v>
+        <v>34.29790002370478</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>27.53146446962658</v>
+        <v>20.71687715055332</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>30.33000137741414</v>
+        <v>23.07741242935674</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>22.87453470321909</v>
+        <v>15.95513068363373</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>27.80315872805755</v>
+        <v>20.89414845505696</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>32.98177040986496</v>
+        <v>23.43832146316158</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>36.52631418061724</v>
+        <v>25.51898216733878</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>26.86448086876668</v>
+        <v>17.14559367360641</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>42.81377714655143</v>
+        <v>45.47178730270863</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>46.41507919675078</v>
+        <v>50.58182494751082</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>37.91689704242755</v>
+        <v>40.33964778320436</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>46.14882789678261</v>
+        <v>47.22829068068675</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>52.15533508551077</v>
+        <v>55.0938906479844</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>56.69564712401198</v>
+        <v>60.79113274832103</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>45.71354731448119</v>
+        <v>48.64580612467022</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>43.52368310784884</v>
+        <v>43.83121546867835</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>47.19268351533846</v>
+        <v>48.56423095927788</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>38.51274306330497</v>
+        <v>38.00917391891939</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>48.09962540411942</v>
+        <v>46.78882428104288</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>54.17890180991041</v>
+        <v>54.42890534880587</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>58.83761735885764</v>
+        <v>59.98842553956318</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>47.54334256885941</v>
+        <v>47.0119191286438</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>32.00316802919959</v>
+        <v>35.42790757962794</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>35.29058273996033</v>
+        <v>39.52085002241994</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>27.16097799064297</v>
+        <v>30.98672419804365</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>33.30299673515017</v>
+        <v>41.7307650250006</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>39.43631223372273</v>
+        <v>46.63379441422889</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>43.61200211916593</v>
+        <v>51.41588181116501</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>33.08285417244464</v>
+        <v>39.39781173399717</v>
       </c>
     </row>
   </sheetData>
